--- a/inst/extdata/demo_infiltration_data.xlsx
+++ b/inst/extdata/demo_infiltration_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{1AD9E395-8C47-49FE-9C6F-96AE711B0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F268D28-D330-47BF-A198-77DBF552AF4B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{1AD9E395-8C47-49FE-9C6F-96AE711B0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD2CE9D-4CBA-4554-9F98-7F3A56FD68F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -15653,7 +15653,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Data cannot exceed 45000 rows.</a:t>
+            <a:t>Data cannot exceed 45000 rows per</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> worksheet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15953,8 +15977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AA0D0C-9576-42E0-B206-BB50AFF0F4EA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53138,7 +53162,7 @@
   </sheetPr>
   <dimension ref="A1:D2457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -87555,6 +87579,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cdbf04b8ff6af1f1edbadfc0fb707b99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f194f4ff1faacf22d916baffc85e0afb" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -87834,30 +87881,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D4CCFB-8D37-4996-95ED-94B4EFCE2A00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="15351079-27be-49c5-816a-0df13826569b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcf826ae-ce52-4e0f-987a-3ae5dcf3d3c6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C376FB-E782-4C75-81BD-ED20DE7BCFDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -87875,32 +87927,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D4CCFB-8D37-4996-95ED-94B4EFCE2A00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="15351079-27be-49c5-816a-0df13826569b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcf826ae-ce52-4e0f-987a-3ae5dcf3d3c6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
-    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>